--- a/SS_dataV8.xlsx
+++ b/SS_dataV8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FFB67B-640E-4287-ACD2-307D22095828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45634BA8-44ED-4B37-91E6-16B579403812}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15444" yWindow="9588" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="4476" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -386,33 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,6 +408,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -778,7 +778,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3048,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A225510A-AA85-4DB0-9F23-80E69C775E1F}">
   <dimension ref="A3:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -3214,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3350,212 +3350,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>4</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="33">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="33">
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43">
+        <v>2</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42">
         <v>4</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="49">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="43">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="40">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="34">
         <v>4</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="46">
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="37">
         <v>4</v>
       </c>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42">
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33">
         <v>4</v>
       </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33">
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="33">
+      <c r="BM3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="33">
+      <c r="BN3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="33">
+      <c r="BP3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="33">
+      <c r="BQ3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="33">
+      <c r="BS3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="34">
+      <c r="BT3" s="47">
         <v>4</v>
       </c>
-      <c r="BU3" s="35">
+      <c r="BU3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="36">
+      <c r="BV3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="33">
+      <c r="BW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="33">
+      <c r="BY3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="33">
+      <c r="BZ3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="33">
+      <c r="CB3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="33">
+      <c r="CC3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="33">
+      <c r="CE3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="34">
+      <c r="CF3" s="47">
         <v>4</v>
       </c>
-      <c r="CG3" s="35">
+      <c r="CG3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="36">
+      <c r="CH3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="33">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="33">
+      <c r="CI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="33">
+      <c r="CK3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="33">
+      <c r="CL3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="33">
+      <c r="CN3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="33">
+      <c r="CO3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="33">
+      <c r="CQ3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="34">
+      <c r="CR3" s="47">
         <v>4</v>
       </c>
-      <c r="CS3" s="35">
+      <c r="CS3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="36">
+      <c r="CT3" s="49">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="9">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="9">
         <v>0</v>
@@ -5337,6 +5337,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5352,31 +5377,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5529,212 +5529,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>4</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="33">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="33">
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43">
+        <v>2</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42">
         <v>4</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="49">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="43">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="40">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="34">
         <v>4</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="46">
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="37">
         <v>4</v>
       </c>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42">
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33">
         <v>4</v>
       </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33">
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="33">
+      <c r="BM3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="33">
+      <c r="BN3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="33">
+      <c r="BP3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="33">
+      <c r="BQ3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="33">
+      <c r="BS3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="34">
+      <c r="BT3" s="47">
         <v>4</v>
       </c>
-      <c r="BU3" s="35">
+      <c r="BU3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="36">
+      <c r="BV3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="33">
+      <c r="BW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="33">
+      <c r="BY3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="33">
+      <c r="BZ3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="33">
+      <c r="CB3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="33">
+      <c r="CC3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="33">
+      <c r="CE3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="34">
+      <c r="CF3" s="47">
         <v>4</v>
       </c>
-      <c r="CG3" s="35">
+      <c r="CG3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="36">
+      <c r="CH3" s="49">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="33">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="33">
+      <c r="CI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="42">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="33">
+      <c r="CK3" s="42">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="33">
+      <c r="CL3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="33">
+      <c r="CN3" s="42">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="33">
+      <c r="CO3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="42">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="33">
+      <c r="CQ3" s="42">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="34">
+      <c r="CR3" s="47">
         <v>4</v>
       </c>
-      <c r="CS3" s="35">
+      <c r="CS3" s="48">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="36">
+      <c r="CT3" s="49">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7516,15 +7516,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7541,6 +7547,1506 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23">
+        <v>2</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="20">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="17">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="17">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="17">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="19"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
+        <v>4</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42">
+        <v>1</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43">
+        <v>2</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="40">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="47">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="48"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="42">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="48"/>
+      <c r="CH3" s="49"/>
+      <c r="CI3" s="42">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="47">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="48"/>
+      <c r="CT3" s="49"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>5</v>
+      </c>
+      <c r="S5" s="9">
+        <v>5</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>5</v>
+      </c>
+      <c r="S6" s="9">
+        <v>5</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9">
+        <v>2</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5</v>
+      </c>
+      <c r="S7" s="9">
+        <v>5</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>2</v>
+      </c>
+      <c r="V7" s="9">
+        <v>2</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -7556,1506 +9062,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="23">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="30">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="20">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="17">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="17">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="17">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="19"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38">
-        <v>2</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39">
-        <v>3</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
-        <v>4</v>
-      </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="33">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="38">
-        <v>2</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
-        <v>3</v>
-      </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="33">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="33">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="49">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="43">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="46">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="33"/>
-      <c r="BM3" s="33"/>
-      <c r="BN3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="33"/>
-      <c r="BP3" s="33"/>
-      <c r="BQ3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="33"/>
-      <c r="BS3" s="33"/>
-      <c r="BT3" s="34">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="35"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="33">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="33"/>
-      <c r="BZ3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="33"/>
-      <c r="CB3" s="33"/>
-      <c r="CC3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="33"/>
-      <c r="CE3" s="33"/>
-      <c r="CF3" s="34">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="35"/>
-      <c r="CH3" s="36"/>
-      <c r="CI3" s="33">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="33"/>
-      <c r="CK3" s="33"/>
-      <c r="CL3" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="33"/>
-      <c r="CN3" s="33"/>
-      <c r="CO3" s="33">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="33"/>
-      <c r="CQ3" s="33"/>
-      <c r="CR3" s="34">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="35"/>
-      <c r="CT3" s="36"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>1</v>
-      </c>
-      <c r="R5" s="9">
-        <v>5</v>
-      </c>
-      <c r="S5" s="9">
-        <v>5</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>2</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>5</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>2</v>
-      </c>
-      <c r="V6" s="9">
-        <v>2</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9">
-        <v>5</v>
-      </c>
-      <c r="S7" s="9">
-        <v>5</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>2</v>
-      </c>
-      <c r="V7" s="9">
-        <v>2</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9072,21 +9078,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9097,7 +9097,7 @@
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:AH6"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10108,8 +10108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV8.xlsx
+++ b/SS_dataV8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45634BA8-44ED-4B37-91E6-16B579403812}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FFA370-5931-46BB-9905-DE9BA21DB8DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="4476" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
   <si>
     <t>j</t>
   </si>
@@ -145,22 +145,22 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Waste</t>
   </si>
   <si>
-    <t>Processing</t>
+    <t>Sell1</t>
   </si>
   <si>
-    <t>Sell</t>
+    <t>Sell2</t>
   </si>
   <si>
-    <t xml:space="preserve">Processing </t>
+    <t>Washing</t>
+  </si>
+  <si>
+    <t>Sell3</t>
   </si>
 </sst>
 </file>
@@ -386,6 +386,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,33 +435,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -775,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
-  <dimension ref="A2:AH6"/>
+  <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,37 +1036,37 @@
         <v>10</v>
       </c>
       <c r="W4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="Y4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AA4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="AC4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AE4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AF4" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="AG4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH4" s="15" t="s">
         <v>10</v>
@@ -1138,37 +1138,37 @@
         <v>10</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AA5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" s="15" t="s">
-        <v>10</v>
+      <c r="AC5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="AD5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG5" s="15" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="AH5" s="15" t="s">
         <v>10</v>
@@ -1252,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AB6" s="15" t="s">
         <v>10</v>
@@ -1263,11 +1263,11 @@
       <c r="AD6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF6" s="15" t="s">
-        <v>10</v>
+      <c r="AE6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="AG6" s="15" t="s">
         <v>10</v>
@@ -1275,6 +1275,9 @@
       <c r="AH6" s="15" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="18" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1295,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1525,40 +1528,40 @@
         <v>10</v>
       </c>
       <c r="W4" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="X4" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -1627,40 +1630,40 @@
         <v>10</v>
       </c>
       <c r="W5" s="9">
-        <v>60</v>
+        <v>7492</v>
       </c>
       <c r="X5" s="9">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="Y5" s="9">
-        <v>60</v>
+        <v>1288</v>
       </c>
       <c r="Z5" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="9">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="9">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="15">
-        <v>10</v>
+        <v>1188</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1</v>
       </c>
       <c r="AD5" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="9">
-        <v>60</v>
-      </c>
-      <c r="AF5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AG5" s="15">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>1</v>
       </c>
       <c r="AH5" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -1729,40 +1732,40 @@
         <v>10</v>
       </c>
       <c r="W6" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X6" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="9">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="AB6" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>1188</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>1288</v>
       </c>
       <c r="AG6" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1777,6 +1780,7 @@
     <mergeCell ref="S2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1784,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,37 +2018,37 @@
         <v>400</v>
       </c>
       <c r="W4" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X4" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y4" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z4" s="15">
         <v>400</v>
       </c>
       <c r="AA4" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB4" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC4" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AD4" s="15">
         <v>400</v>
       </c>
       <c r="AE4" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AF4" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AG4" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AH4" s="15">
         <v>400</v>
@@ -2116,36 +2120,36 @@
         <v>400</v>
       </c>
       <c r="W5" s="9">
-        <v>300</v>
+        <v>541.70000000000005</v>
       </c>
       <c r="X5" s="9">
-        <v>300</v>
+        <v>394.1</v>
       </c>
       <c r="Y5" s="9">
-        <v>300</v>
+        <v>394.1</v>
       </c>
       <c r="Z5" s="15">
         <v>400</v>
       </c>
       <c r="AA5" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB5" s="9">
-        <v>300</v>
-      </c>
-      <c r="AC5" s="15">
+        <v>394.1</v>
+      </c>
+      <c r="AC5" s="9">
         <v>400</v>
       </c>
       <c r="AD5" s="15">
         <v>400</v>
       </c>
       <c r="AE5" s="9">
-        <v>300</v>
-      </c>
-      <c r="AF5" s="15">
         <v>400</v>
       </c>
-      <c r="AG5" s="15">
+      <c r="AF5" s="9">
+        <v>400</v>
+      </c>
+      <c r="AG5" s="9">
         <v>400</v>
       </c>
       <c r="AH5" s="15">
@@ -2230,7 +2234,7 @@
         <v>400</v>
       </c>
       <c r="AA6" s="9">
-        <v>300</v>
+        <v>394.1</v>
       </c>
       <c r="AB6" s="15">
         <v>400</v>
@@ -2241,11 +2245,11 @@
       <c r="AD6" s="15">
         <v>400</v>
       </c>
-      <c r="AE6" s="15">
-        <v>400</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>400</v>
+      <c r="AE6" s="9">
+        <v>394.1</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>394.1</v>
       </c>
       <c r="AG6" s="15">
         <v>400</v>
@@ -2273,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2502,38 +2506,38 @@
       <c r="V4" s="15">
         <v>1</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>32</v>
+      <c r="W4" s="9">
+        <v>1</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>1</v>
       </c>
       <c r="Z4" s="15">
         <v>1</v>
       </c>
-      <c r="AA4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>32</v>
+      <c r="AA4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1</v>
       </c>
       <c r="AD4" s="15">
         <v>1</v>
       </c>
-      <c r="AE4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>32</v>
+      <c r="AE4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>1</v>
       </c>
       <c r="AH4" s="15">
         <v>1</v>
@@ -2604,37 +2608,37 @@
       <c r="V5" s="15">
         <v>1</v>
       </c>
-      <c r="W5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>32</v>
+      <c r="W5" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.78</v>
       </c>
       <c r="Z5" s="15">
         <v>1</v>
       </c>
-      <c r="AA5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="15">
+      <c r="AA5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="AC5" s="9">
         <v>1</v>
       </c>
       <c r="AD5" s="15">
         <v>1</v>
       </c>
-      <c r="AE5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="15">
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9">
         <v>1</v>
       </c>
       <c r="AH5" s="15">
@@ -2718,8 +2722,8 @@
       <c r="Z6" s="15">
         <v>1</v>
       </c>
-      <c r="AA6" s="9" t="s">
-        <v>32</v>
+      <c r="AA6" s="9">
+        <v>0.53</v>
       </c>
       <c r="AB6" s="15">
         <v>1</v>
@@ -2730,11 +2734,11 @@
       <c r="AD6" s="15">
         <v>1</v>
       </c>
-      <c r="AE6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>1</v>
+      <c r="AE6" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0.78</v>
       </c>
       <c r="AG6" s="15">
         <v>1</v>
@@ -3096,7 +3100,7 @@
     </row>
     <row r="32" spans="37:37" x14ac:dyDescent="0.3">
       <c r="AK32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3214,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="CP19" sqref="CP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3350,212 +3354,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="37">
+        <v>3</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="33">
         <v>4</v>
       </c>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="40">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="34">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="43">
         <v>4</v>
       </c>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="37">
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="46">
         <v>4</v>
       </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33">
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42">
         <v>4</v>
       </c>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="42">
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="42">
+      <c r="BM3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="42">
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="42">
+      <c r="BP3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="42">
+      <c r="BQ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="42">
+      <c r="BS3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="47">
+      <c r="BT3" s="34">
         <v>4</v>
       </c>
-      <c r="BU3" s="48">
+      <c r="BU3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="49">
+      <c r="BV3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="42">
+      <c r="BW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="42">
+      <c r="BY3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="42">
+      <c r="BZ3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="42">
+      <c r="CB3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="42">
+      <c r="CC3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="42">
+      <c r="CE3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="47">
+      <c r="CF3" s="34">
         <v>4</v>
       </c>
-      <c r="CG3" s="48">
+      <c r="CG3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="49">
+      <c r="CH3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="42">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="42">
+      <c r="CI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="42">
+      <c r="CK3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="42">
+      <c r="CL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="42">
+      <c r="CN3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="42">
+      <c r="CO3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="42">
+      <c r="CQ3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="47">
+      <c r="CR3" s="34">
         <v>4</v>
       </c>
-      <c r="CS3" s="48">
+      <c r="CS3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="49">
+      <c r="CT3" s="36">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -4046,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="BL5" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="BM5" s="15">
         <v>1</v>
@@ -4055,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="BO5" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="BP5" s="15">
         <v>1</v>
@@ -4064,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="BR5" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BS5" s="15">
         <v>1</v>
@@ -4085,13 +4089,13 @@
         <v>1</v>
       </c>
       <c r="BY5" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="BZ5" s="9">
         <v>1</v>
       </c>
       <c r="CA5" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="CB5" s="15">
         <v>1</v>
@@ -4099,7 +4103,7 @@
       <c r="CC5" s="9">
         <v>1</v>
       </c>
-      <c r="CD5" s="15">
+      <c r="CD5" s="9">
         <v>1</v>
       </c>
       <c r="CE5" s="15">
@@ -4120,22 +4124,22 @@
       <c r="CJ5" s="9">
         <v>1</v>
       </c>
-      <c r="CK5" s="15">
-        <v>1</v>
+      <c r="CK5" s="9">
+        <v>0.1</v>
       </c>
       <c r="CL5" s="9">
         <v>1</v>
       </c>
-      <c r="CM5" s="15">
-        <v>1</v>
-      </c>
-      <c r="CN5" s="15">
-        <v>1</v>
+      <c r="CM5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>0.1</v>
       </c>
       <c r="CO5" s="9">
         <v>1</v>
       </c>
-      <c r="CP5" s="15">
+      <c r="CP5" s="9">
         <v>1</v>
       </c>
       <c r="CQ5" s="15">
@@ -4342,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="BL6" s="9">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="BM6" s="15">
         <v>1</v>
@@ -4351,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="BO6" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="BP6" s="15">
         <v>1</v>
@@ -4360,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="BR6" s="9">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="BS6" s="15">
         <v>1</v>
@@ -4381,13 +4385,13 @@
         <v>1</v>
       </c>
       <c r="BY6" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="BZ6" s="9">
         <v>1</v>
       </c>
       <c r="CA6" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="CB6" s="15">
         <v>1</v>
@@ -4395,7 +4399,7 @@
       <c r="CC6" s="9">
         <v>1</v>
       </c>
-      <c r="CD6" s="15">
+      <c r="CD6" s="9">
         <v>1</v>
       </c>
       <c r="CE6" s="15">
@@ -4416,22 +4420,22 @@
       <c r="CJ6" s="9">
         <v>1</v>
       </c>
-      <c r="CK6" s="15">
-        <v>1</v>
+      <c r="CK6" s="9">
+        <v>0.1</v>
       </c>
       <c r="CL6" s="9">
         <v>1</v>
       </c>
-      <c r="CM6" s="15">
-        <v>1</v>
-      </c>
-      <c r="CN6" s="15">
-        <v>1</v>
+      <c r="CM6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>0.01</v>
       </c>
       <c r="CO6" s="9">
         <v>1</v>
       </c>
-      <c r="CP6" s="15">
+      <c r="CP6" s="9">
         <v>1</v>
       </c>
       <c r="CQ6" s="15">
@@ -4691,7 +4695,7 @@
       <c r="CC7" s="9">
         <v>1</v>
       </c>
-      <c r="CD7" s="15">
+      <c r="CD7" s="9">
         <v>1</v>
       </c>
       <c r="CE7" s="15">
@@ -4712,22 +4716,22 @@
       <c r="CJ7" s="9">
         <v>1</v>
       </c>
-      <c r="CK7" s="15">
+      <c r="CK7" s="9">
         <v>1</v>
       </c>
       <c r="CL7" s="9">
         <v>1</v>
       </c>
-      <c r="CM7" s="15">
-        <v>1</v>
-      </c>
-      <c r="CN7" s="15">
+      <c r="CM7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="9">
         <v>1</v>
       </c>
       <c r="CO7" s="9">
         <v>1</v>
       </c>
-      <c r="CP7" s="15">
+      <c r="CP7" s="9">
         <v>1</v>
       </c>
       <c r="CQ7" s="15">
@@ -4934,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="BL8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM8" s="15">
         <v>1</v>
@@ -4943,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="BO8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP8" s="15">
         <v>1</v>
@@ -4973,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="BY8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8" s="9">
         <v>1</v>
@@ -4987,7 +4991,7 @@
       <c r="CC8" s="9">
         <v>1</v>
       </c>
-      <c r="CD8" s="15">
+      <c r="CD8" s="9">
         <v>1</v>
       </c>
       <c r="CE8" s="15">
@@ -5008,22 +5012,22 @@
       <c r="CJ8" s="9">
         <v>1</v>
       </c>
-      <c r="CK8" s="15">
-        <v>1</v>
+      <c r="CK8" s="9">
+        <v>0</v>
       </c>
       <c r="CL8" s="9">
         <v>1</v>
       </c>
-      <c r="CM8" s="15">
-        <v>1</v>
-      </c>
-      <c r="CN8" s="15">
-        <v>1</v>
+      <c r="CM8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="9">
+        <v>0</v>
       </c>
       <c r="CO8" s="9">
         <v>1</v>
       </c>
-      <c r="CP8" s="15">
+      <c r="CP8" s="9">
         <v>1</v>
       </c>
       <c r="CQ8" s="15">
@@ -5230,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="BL9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM9" s="15">
         <v>1</v>
@@ -5283,7 +5287,7 @@
       <c r="CC9" s="9">
         <v>1</v>
       </c>
-      <c r="CD9" s="15">
+      <c r="CD9" s="9">
         <v>1</v>
       </c>
       <c r="CE9" s="15">
@@ -5304,22 +5308,22 @@
       <c r="CJ9" s="9">
         <v>1</v>
       </c>
-      <c r="CK9" s="15">
-        <v>1</v>
+      <c r="CK9" s="9">
+        <v>0</v>
       </c>
       <c r="CL9" s="9">
         <v>1</v>
       </c>
-      <c r="CM9" s="15">
-        <v>1</v>
-      </c>
-      <c r="CN9" s="15">
-        <v>1</v>
+      <c r="CM9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CN9" s="9">
+        <v>0</v>
       </c>
       <c r="CO9" s="9">
         <v>1</v>
       </c>
-      <c r="CP9" s="15">
+      <c r="CP9" s="9">
         <v>1</v>
       </c>
       <c r="CQ9" s="15">
@@ -5337,6 +5341,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5352,31 +5381,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5386,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CP18" sqref="CP18"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5529,212 +5533,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="37">
+        <v>3</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="33">
         <v>4</v>
       </c>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="40">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="34">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="43">
         <v>4</v>
       </c>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="37">
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="46">
         <v>4</v>
       </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33">
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42">
         <v>4</v>
       </c>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="42">
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="42">
+      <c r="BM3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="42">
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="42">
+      <c r="BP3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="42">
+      <c r="BQ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="42">
+      <c r="BS3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="47">
+      <c r="BT3" s="34">
         <v>4</v>
       </c>
-      <c r="BU3" s="48">
+      <c r="BU3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="49">
+      <c r="BV3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="42">
+      <c r="BW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="42">
+      <c r="BY3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="42">
+      <c r="BZ3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="42">
+      <c r="CB3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="42">
+      <c r="CC3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="42">
+      <c r="CE3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="47">
+      <c r="CF3" s="34">
         <v>4</v>
       </c>
-      <c r="CG3" s="48">
+      <c r="CG3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="49">
+      <c r="CH3" s="36">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="42">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="42">
+      <c r="CI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="33">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="42">
+      <c r="CK3" s="33">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="42">
+      <c r="CL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="33">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="42">
+      <c r="CN3" s="33">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="42">
+      <c r="CO3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="33">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="42">
+      <c r="CQ3" s="33">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="47">
+      <c r="CR3" s="34">
         <v>4</v>
       </c>
-      <c r="CS3" s="48">
+      <c r="CS3" s="35">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="49">
+      <c r="CT3" s="36">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -6278,7 +6282,7 @@
       <c r="CC5" s="9">
         <v>0</v>
       </c>
-      <c r="CD5" s="15">
+      <c r="CD5" s="9">
         <v>0</v>
       </c>
       <c r="CE5" s="15">
@@ -6299,22 +6303,22 @@
       <c r="CJ5" s="9">
         <v>0</v>
       </c>
-      <c r="CK5" s="15">
+      <c r="CK5" s="9">
         <v>0</v>
       </c>
       <c r="CL5" s="9">
         <v>0</v>
       </c>
-      <c r="CM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="15">
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
         <v>0</v>
       </c>
       <c r="CO5" s="9">
         <v>0</v>
       </c>
-      <c r="CP5" s="15">
+      <c r="CP5" s="9">
         <v>0</v>
       </c>
       <c r="CQ5" s="15">
@@ -6574,7 +6578,7 @@
       <c r="CC6" s="9">
         <v>0</v>
       </c>
-      <c r="CD6" s="15">
+      <c r="CD6" s="9">
         <v>0</v>
       </c>
       <c r="CE6" s="15">
@@ -6595,22 +6599,22 @@
       <c r="CJ6" s="9">
         <v>0</v>
       </c>
-      <c r="CK6" s="15">
+      <c r="CK6" s="9">
         <v>0</v>
       </c>
       <c r="CL6" s="9">
         <v>0</v>
       </c>
-      <c r="CM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="15">
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
         <v>0</v>
       </c>
       <c r="CO6" s="9">
         <v>0</v>
       </c>
-      <c r="CP6" s="15">
+      <c r="CP6" s="9">
         <v>0</v>
       </c>
       <c r="CQ6" s="15">
@@ -6870,7 +6874,7 @@
       <c r="CC7" s="9">
         <v>0</v>
       </c>
-      <c r="CD7" s="15">
+      <c r="CD7" s="9">
         <v>0</v>
       </c>
       <c r="CE7" s="15">
@@ -6891,22 +6895,22 @@
       <c r="CJ7" s="9">
         <v>0</v>
       </c>
-      <c r="CK7" s="15">
+      <c r="CK7" s="9">
         <v>0</v>
       </c>
       <c r="CL7" s="9">
         <v>0</v>
       </c>
-      <c r="CM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="15">
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
         <v>0</v>
       </c>
       <c r="CO7" s="9">
         <v>0</v>
       </c>
-      <c r="CP7" s="15">
+      <c r="CP7" s="9">
         <v>0</v>
       </c>
       <c r="CQ7" s="15">
@@ -7166,7 +7170,7 @@
       <c r="CC8" s="9">
         <v>0</v>
       </c>
-      <c r="CD8" s="15">
+      <c r="CD8" s="9">
         <v>0</v>
       </c>
       <c r="CE8" s="15">
@@ -7187,22 +7191,22 @@
       <c r="CJ8" s="9">
         <v>0</v>
       </c>
-      <c r="CK8" s="15">
+      <c r="CK8" s="9">
         <v>0</v>
       </c>
       <c r="CL8" s="9">
         <v>0</v>
       </c>
-      <c r="CM8" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="15">
+      <c r="CM8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="9">
         <v>0</v>
       </c>
       <c r="CO8" s="9">
         <v>0</v>
       </c>
-      <c r="CP8" s="15">
+      <c r="CP8" s="9">
         <v>0</v>
       </c>
       <c r="CQ8" s="15">
@@ -7462,7 +7466,7 @@
       <c r="CC9" s="9">
         <v>0</v>
       </c>
-      <c r="CD9" s="15">
+      <c r="CD9" s="9">
         <v>0</v>
       </c>
       <c r="CE9" s="15">
@@ -7483,22 +7487,22 @@
       <c r="CJ9" s="9">
         <v>0</v>
       </c>
-      <c r="CK9" s="15">
+      <c r="CK9" s="9">
         <v>0</v>
       </c>
       <c r="CL9" s="9">
         <v>0</v>
       </c>
-      <c r="CM9" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="15">
+      <c r="CM9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="9">
         <v>0</v>
       </c>
       <c r="CO9" s="9">
         <v>0</v>
       </c>
-      <c r="CP9" s="15">
+      <c r="CP9" s="9">
         <v>0</v>
       </c>
       <c r="CQ9" s="15">
@@ -7516,21 +7520,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7547,15 +7545,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7565,8 +7569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
   <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="CP5" sqref="CP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7700,166 +7704,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38">
+        <v>2</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="33">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="37">
+        <v>3</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="33">
         <v>4</v>
       </c>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="40">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="34">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="49">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="43">
         <v>4</v>
       </c>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="37">
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="46">
         <v>4</v>
       </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33">
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42">
         <v>4</v>
       </c>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="47">
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="33"/>
+      <c r="BM3" s="33"/>
+      <c r="BN3" s="33">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="33"/>
+      <c r="BQ3" s="33">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="33"/>
+      <c r="BS3" s="33"/>
+      <c r="BT3" s="34">
         <v>4</v>
       </c>
-      <c r="BU3" s="48"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="42"/>
-      <c r="CC3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="47">
+      <c r="BU3" s="35"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="33"/>
+      <c r="BY3" s="33"/>
+      <c r="BZ3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="33"/>
+      <c r="CB3" s="33"/>
+      <c r="CC3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="33"/>
+      <c r="CE3" s="33"/>
+      <c r="CF3" s="34">
         <v>4</v>
       </c>
-      <c r="CG3" s="48"/>
-      <c r="CH3" s="49"/>
-      <c r="CI3" s="42">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="47">
+      <c r="CG3" s="35"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="33">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="33"/>
+      <c r="CK3" s="33"/>
+      <c r="CL3" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="33"/>
+      <c r="CN3" s="33"/>
+      <c r="CO3" s="33">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="33"/>
+      <c r="CQ3" s="33"/>
+      <c r="CR3" s="34">
         <v>4</v>
       </c>
-      <c r="CS3" s="48"/>
-      <c r="CT3" s="49"/>
+      <c r="CS3" s="35"/>
+      <c r="CT3" s="36"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -8401,7 +8405,7 @@
       <c r="CC5" s="9">
         <v>0</v>
       </c>
-      <c r="CD5" s="15">
+      <c r="CD5" s="9">
         <v>0</v>
       </c>
       <c r="CE5" s="15">
@@ -8422,22 +8426,22 @@
       <c r="CJ5" s="9">
         <v>0</v>
       </c>
-      <c r="CK5" s="15">
-        <v>0</v>
+      <c r="CK5" s="9">
+        <v>2</v>
       </c>
       <c r="CL5" s="9">
         <v>0</v>
       </c>
-      <c r="CM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="15">
-        <v>0</v>
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>2</v>
       </c>
       <c r="CO5" s="9">
         <v>0</v>
       </c>
-      <c r="CP5" s="15">
+      <c r="CP5" s="9">
         <v>0</v>
       </c>
       <c r="CQ5" s="15">
@@ -8644,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="15">
         <v>0</v>
@@ -8653,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="15">
         <v>0</v>
@@ -8662,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="BR6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="15">
         <v>0</v>
@@ -8683,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="BY6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ6" s="9">
         <v>0</v>
       </c>
       <c r="CA6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB6" s="15">
         <v>0</v>
@@ -8697,7 +8701,7 @@
       <c r="CC6" s="9">
         <v>0</v>
       </c>
-      <c r="CD6" s="15">
+      <c r="CD6" s="9">
         <v>0</v>
       </c>
       <c r="CE6" s="15">
@@ -8718,22 +8722,22 @@
       <c r="CJ6" s="9">
         <v>0</v>
       </c>
-      <c r="CK6" s="15">
+      <c r="CK6" s="9">
         <v>0</v>
       </c>
       <c r="CL6" s="9">
         <v>0</v>
       </c>
-      <c r="CM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="15">
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
         <v>0</v>
       </c>
       <c r="CO6" s="9">
         <v>0</v>
       </c>
-      <c r="CP6" s="15">
+      <c r="CP6" s="9">
         <v>0</v>
       </c>
       <c r="CQ6" s="15">
@@ -8940,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="15">
         <v>0</v>
@@ -8949,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="BO7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="15">
         <v>0</v>
@@ -8958,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="BR7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="15">
         <v>0</v>
@@ -8979,13 +8983,13 @@
         <v>0</v>
       </c>
       <c r="BY7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="9">
         <v>0</v>
       </c>
       <c r="CA7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB7" s="15">
         <v>0</v>
@@ -8993,7 +8997,7 @@
       <c r="CC7" s="9">
         <v>0</v>
       </c>
-      <c r="CD7" s="15">
+      <c r="CD7" s="9">
         <v>0</v>
       </c>
       <c r="CE7" s="15">
@@ -9014,22 +9018,22 @@
       <c r="CJ7" s="9">
         <v>0</v>
       </c>
-      <c r="CK7" s="15">
+      <c r="CK7" s="9">
         <v>0</v>
       </c>
       <c r="CL7" s="9">
         <v>0</v>
       </c>
-      <c r="CM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="15">
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
         <v>0</v>
       </c>
       <c r="CO7" s="9">
         <v>0</v>
       </c>
-      <c r="CP7" s="15">
+      <c r="CP7" s="9">
         <v>0</v>
       </c>
       <c r="CQ7" s="15">
@@ -9047,21 +9051,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9078,15 +9076,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9096,8 +9100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9367,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AA4" s="9">
         <v>0</v>
@@ -9379,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AE4" s="9">
         <v>0</v>
@@ -9391,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -9460,28 +9464,28 @@
         <v>999999</v>
       </c>
       <c r="W5" s="9">
-        <v>2000</v>
+        <v>21800</v>
       </c>
       <c r="X5" s="9">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="Y5" s="9">
-        <v>2000</v>
+        <v>140000</v>
       </c>
       <c r="Z5" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AA5" s="9">
         <v>0</v>
       </c>
       <c r="AB5" s="9">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AC5" s="9">
         <v>0</v>
       </c>
       <c r="AD5" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AE5" s="9">
         <v>0</v>
@@ -9493,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -9562,40 +9566,40 @@
         <v>999999</v>
       </c>
       <c r="W6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="X6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="Y6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="Z6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AA6" s="9">
-        <v>2000</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>2000</v>
+        <v>21000</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>999999</v>
       </c>
       <c r="AC6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AD6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AE6" s="9">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AF6" s="9">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="AG6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AH6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
     </row>
   </sheetData>
@@ -9619,7 +9623,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9848,40 +9852,40 @@
         <v>100</v>
       </c>
       <c r="W4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z4" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AB4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AC4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AD4" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG4" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AH4" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -9950,40 +9954,40 @@
         <v>100</v>
       </c>
       <c r="W5" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="X5" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="Y5" s="9">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="Z5" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA5" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="9">
         <v>60</v>
       </c>
-      <c r="AC5" s="15">
-        <v>0</v>
+      <c r="AC5" s="9">
+        <v>25</v>
       </c>
       <c r="AD5" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE5" s="9">
-        <v>60</v>
-      </c>
-      <c r="AF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="15">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>25</v>
       </c>
       <c r="AH5" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -10052,40 +10056,40 @@
         <v>100</v>
       </c>
       <c r="W6" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X6" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y6" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z6" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA6" s="9">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>25</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>25</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>25</v>
+      </c>
+      <c r="AE6" s="9">
         <v>60</v>
       </c>
-      <c r="AB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>0</v>
+      <c r="AF6" s="9">
+        <v>110</v>
       </c>
       <c r="AG6" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH6" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -10109,7 +10113,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10347,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AA4" s="9">
         <v>0</v>
@@ -10359,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AE4" s="9">
         <v>0</v>
@@ -10371,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -10440,28 +10444,28 @@
         <v>999999</v>
       </c>
       <c r="W5" s="9">
-        <v>2000</v>
+        <v>21800</v>
       </c>
       <c r="X5" s="9">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="Y5" s="9">
-        <v>2000</v>
+        <v>140000</v>
       </c>
       <c r="Z5" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AA5" s="9">
         <v>0</v>
       </c>
       <c r="AB5" s="9">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AC5" s="9">
         <v>0</v>
       </c>
       <c r="AD5" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AE5" s="9">
         <v>0</v>
@@ -10473,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -10542,40 +10546,40 @@
         <v>999999</v>
       </c>
       <c r="W6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="X6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="Y6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="Z6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AA6" s="9">
-        <v>2000</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>2000</v>
+        <v>21000</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>999999</v>
       </c>
       <c r="AC6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AD6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AE6" s="9">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AF6" s="9">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="AG6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="AH6" s="15">
-        <v>9999</v>
+        <v>999999</v>
       </c>
     </row>
   </sheetData>
